--- a/samples/Excel/Chart of Accounts - detailed and short balance.xlsx
+++ b/samples/Excel/Chart of Accounts - detailed and short balance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\BCTech\samples\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E9F588-E551-451E-8010-CC8818A94413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52955C22-DB66-423C-B4B4-CE372C13B3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13" yWindow="733" windowWidth="25587" windowHeight="15267" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balance" sheetId="10" r:id="rId1"/>
@@ -797,7 +797,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Chart of Account</t>
+      <t>Chart of Accounts</t>
     </r>
     <r>
       <rPr>
@@ -820,8 +820,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="hh:mm:ss.000"/>
-    <numFmt numFmtId="168" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-DK,1]hh:mm;@"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-DK,1]hh:mm;@"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -879,8 +879,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
